--- a/data/general_dmp.xlsx
+++ b/data/general_dmp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kucing\opencitations\oc_dmp\oc-dmp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B363AA-4DC0-4DFE-90A5-E7D2F4A3276B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EAF95B-D4E9-47CB-A1F3-66A728FC409D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -136,6 +136,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -322,7 +323,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -621,7 +622,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -638,7 +639,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -672,7 +673,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -723,7 +724,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -774,7 +775,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
@@ -804,7 +805,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -817,7 +818,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -830,7 +831,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -843,7 +844,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -856,7 +857,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -869,7 +870,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -882,7 +883,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -895,7 +896,7 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -908,7 +909,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -921,7 +922,7 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -934,7 +935,7 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -947,7 +948,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -960,7 +961,7 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -973,7 +974,7 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -986,7 +987,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -999,7 +1000,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1012,7 +1013,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1025,7 +1026,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1038,7 +1039,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1051,7 +1052,7 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1064,7 +1065,7 @@
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1077,7 +1078,7 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1090,7 +1091,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1103,7 +1104,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1116,7 +1117,7 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1129,7 +1130,7 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1142,7 +1143,7 @@
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1155,7 +1156,7 @@
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1168,7 +1169,7 @@
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1181,7 +1182,7 @@
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1194,7 +1195,7 @@
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1207,7 +1208,7 @@
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1220,7 +1221,7 @@
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1233,7 +1234,7 @@
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1246,7 +1247,7 @@
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1259,7 +1260,7 @@
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1272,7 +1273,7 @@
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1285,7 +1286,7 @@
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -1298,7 +1299,7 @@
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -1311,7 +1312,7 @@
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -1324,7 +1325,7 @@
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -1337,7 +1338,7 @@
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -1350,7 +1351,7 @@
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -1363,7 +1364,7 @@
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -1376,7 +1377,7 @@
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -1389,7 +1390,7 @@
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -1402,7 +1403,7 @@
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -1415,7 +1416,7 @@
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -1428,7 +1429,7 @@
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -1441,7 +1442,7 @@
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -1454,7 +1455,7 @@
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -1467,7 +1468,7 @@
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -1480,7 +1481,7 @@
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -1493,7 +1494,7 @@
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -1506,7 +1507,7 @@
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -1519,7 +1520,7 @@
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -1532,7 +1533,7 @@
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -1545,7 +1546,7 @@
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -1558,7 +1559,7 @@
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -1571,7 +1572,7 @@
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -1584,7 +1585,7 @@
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -1597,7 +1598,7 @@
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -1610,7 +1611,7 @@
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -1623,7 +1624,7 @@
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -1636,7 +1637,7 @@
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -1649,7 +1650,7 @@
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -1662,7 +1663,7 @@
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -1675,7 +1676,7 @@
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -1688,7 +1689,7 @@
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -1701,7 +1702,7 @@
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -1714,7 +1715,7 @@
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -1727,7 +1728,7 @@
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -1740,7 +1741,7 @@
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -1753,7 +1754,7 @@
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -1766,7 +1767,7 @@
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -1779,7 +1780,7 @@
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -1792,7 +1793,7 @@
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -1805,7 +1806,7 @@
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -1818,7 +1819,7 @@
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -1831,7 +1832,7 @@
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -1844,7 +1845,7 @@
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -1857,7 +1858,7 @@
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
